--- a/accessdb/templateSheets/02_defFamSheet.xlsx
+++ b/accessdb/templateSheets/02_defFamSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovial\Documents\Workspace\GitHub\cbcef-frdb\accessdb\templateSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918A992E-B48C-45ED-8C17-D67287E7E192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828B100E-5E93-4205-948D-0854DF3B49F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{691864EF-CD39-4A4F-A743-1915A8367D6B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="FamilyRegister" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FamilyRegister!$A$1:$D$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FamilyRegister!$A$1:$D$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">FamilyRegister!$A:$D,FamilyRegister!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="181029" iterate="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">ഈ വിശ്വാസത്തിലേക്ക് വരുന്നതിന് മുന്‍പ് ഉണ്ടായിരുന്ന വിശ്വാസ പശ്ചാത്തലം </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ഈ  വിശ്വാസത്തിലേക്ക് വന്നപ്പോഴത്തെ സഭ (മാതൃ സഭ) </t>
   </si>
   <si>
     <t>സ്നാനം നടത്തിയ സ്ഥാനീയ സഭ</t>
@@ -550,7 +547,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4252409</xdr:colOff>
+      <xdr:colOff>4140350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -568,7 +565,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7771056" y="0"/>
+          <a:off x="7658997" y="0"/>
           <a:ext cx="4660185" cy="970266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -697,7 +694,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>829235</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>201706</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3918775" cy="1759323"/>
@@ -1059,8 +1056,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7ED75F74-C5D4-4B51-8775-6C43A3A144B1}" name="Table4" displayName="Table4" ref="A5:D48" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
-  <autoFilter ref="A5:D48" xr:uid="{7ED75F74-C5D4-4B51-8775-6C43A3A144B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7ED75F74-C5D4-4B51-8775-6C43A3A144B1}" name="Table4" displayName="Table4" ref="A5:D47" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
+  <autoFilter ref="A5:D47" xr:uid="{7ED75F74-C5D4-4B51-8775-6C43A3A144B1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6D668163-801A-41BB-B009-B9F1EBB13689}" name="Sl. No." totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" xr3:uid="{BF741685-7980-46D2-B60C-07F0984CB8EA}" name="Description" dataDxfId="3" totalsRowDxfId="2"/>
@@ -1410,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1579,7 +1576,7 @@
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -1690,7 +1687,7 @@
     </row>
     <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>29</v>
@@ -1700,7 +1697,7 @@
     </row>
     <row r="36" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>30</v>
@@ -1710,7 +1707,7 @@
     </row>
     <row r="37" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>31</v>
@@ -1720,7 +1717,7 @@
     </row>
     <row r="38" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>32</v>
@@ -1730,7 +1727,7 @@
     </row>
     <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>33</v>
@@ -1740,7 +1737,7 @@
     </row>
     <row r="40" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>34</v>
@@ -1749,10 +1746,8 @@
       <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16">
-        <v>28</v>
-      </c>
-      <c r="B41" s="21" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="18"/>
@@ -1791,66 +1786,66 @@
       <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="A46" s="16">
+        <v>29</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
-        <v>29</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16">
-        <v>30</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="A50" s="25"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="C51" s="6"/>
+      <c r="A51" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="26" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="7"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="26" t="s">
@@ -1858,20 +1853,17 @@
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="26" t="s">
-        <v>44</v>
-      </c>
+      <c r="A55" s="26"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
+      <c r="A56" s="2"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="13"/>
+      <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
@@ -1880,29 +1872,30 @@
     </row>
     <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="15"/>
     </row>
     <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="C59" s="15"/>
+      <c r="A59" s="7"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
-      <c r="C60" s="7"/>
+      <c r="C60" s="15"/>
     </row>
     <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
-      <c r="C61" s="15"/>
+      <c r="C61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="C62" s="7"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="15"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
@@ -7628,12 +7621,7 @@
       <c r="C1017" s="11"/>
       <c r="D1017" s="11"/>
     </row>
-    <row r="1018" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1018" s="10"/>
-      <c r="B1018" s="8"/>
-      <c r="C1018" s="11"/>
-      <c r="D1018" s="11"/>
-    </row>
+    <row r="1018" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
